--- a/Ch4/datasets/daily_boxoffice.xlsx
+++ b/Ch4/datasets/daily_boxoffice.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies_fixed_dates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="movies_fixed_dates1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,10 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="MM-DD-YYYY"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -70,12 +68,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1775,7 +1767,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>44312</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1785,7 +1777,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>44313</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1795,7 +1787,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>44314</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1805,7 +1797,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>44315</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1815,7 +1807,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1825,7 +1817,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="3" t="n">
         <v>44317</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1835,7 +1827,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="3" t="n">
         <v>44318</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1845,7 +1837,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="3" t="n">
         <v>44319</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="3" t="n">
         <v>44320</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1865,7 +1857,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="3" t="n">
         <v>44321</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1875,7 +1867,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="3" t="n">
         <v>44322</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1885,7 +1877,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="3" t="n">
         <v>44323</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1895,7 +1887,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="3" t="n">
         <v>44324</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1905,7 +1897,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="3" t="n">
         <v>44325</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1915,7 +1907,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="3" t="n">
         <v>44326</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -1925,7 +1917,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="3" t="n">
         <v>44327</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -1935,7 +1927,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="3" t="n">
         <v>44328</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -1945,7 +1937,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="3" t="n">
         <v>44329</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -1955,7 +1947,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="3" t="n">
         <v>44330</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -1965,7 +1957,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="3" t="n">
         <v>44331</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -1975,7 +1967,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="3" t="n">
         <v>44332</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -1985,7 +1977,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="3" t="n">
         <v>44333</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1995,7 +1987,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="3" t="n">
         <v>44334</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -2005,7 +1997,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="3" t="n">
         <v>44335</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="3" t="n">
         <v>44336</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -2025,7 +2017,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="3" t="n">
         <v>44337</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -2035,7 +2027,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="3" t="n">
         <v>44338</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -2045,7 +2037,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="3" t="n">
         <v>44339</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -2055,7 +2047,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="3" t="n">
         <v>44340</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -2065,7 +2057,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="3" t="n">
         <v>44341</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -2075,7 +2067,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="3" t="n">
         <v>44342</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -2085,7 +2077,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="3" t="n">
         <v>44343</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -2095,7 +2087,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="3" t="n">
         <v>44344</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -2105,7 +2097,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="3" t="n">
         <v>44345</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -2115,7 +2107,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="3" t="n">
         <v>44346</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -2125,7 +2117,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -2135,7 +2127,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -2145,7 +2137,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="n">
+      <c r="A39" s="3" t="n">
         <v>44349</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -2155,7 +2147,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="n">
+      <c r="A40" s="3" t="n">
         <v>44350</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -2165,7 +2157,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="n">
+      <c r="A41" s="3" t="n">
         <v>44351</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -2175,7 +2167,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="n">
+      <c r="A42" s="3" t="n">
         <v>44352</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -2185,7 +2177,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="n">
+      <c r="A43" s="3" t="n">
         <v>44353</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -2195,7 +2187,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="n">
+      <c r="A44" s="3" t="n">
         <v>44354</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -2205,7 +2197,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="n">
+      <c r="A45" s="3" t="n">
         <v>44355</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -2215,7 +2207,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="n">
+      <c r="A46" s="3" t="n">
         <v>44356</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -2225,7 +2217,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n">
+      <c r="A47" s="3" t="n">
         <v>44357</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -2235,7 +2227,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="n">
+      <c r="A48" s="3" t="n">
         <v>44358</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -2245,7 +2237,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="n">
+      <c r="A49" s="3" t="n">
         <v>44359</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -2255,7 +2247,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="n">
+      <c r="A50" s="3" t="n">
         <v>44360</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -2265,7 +2257,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="n">
+      <c r="A51" s="3" t="n">
         <v>44361</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -2275,7 +2267,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="n">
+      <c r="A52" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -2285,7 +2277,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="n">
+      <c r="A53" s="3" t="n">
         <v>44363</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -2295,7 +2287,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n">
+      <c r="A54" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -2305,7 +2297,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="n">
+      <c r="A55" s="3" t="n">
         <v>44365</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -2315,7 +2307,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="n">
+      <c r="A56" s="3" t="n">
         <v>44366</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -2325,7 +2317,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="n">
+      <c r="A57" s="3" t="n">
         <v>44367</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -2335,7 +2327,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="n">
+      <c r="A58" s="3" t="n">
         <v>44368</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -2345,7 +2337,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="n">
+      <c r="A59" s="3" t="n">
         <v>44369</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -2355,7 +2347,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n">
+      <c r="A60" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -2365,7 +2357,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="n">
+      <c r="A61" s="3" t="n">
         <v>44371</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -2375,7 +2367,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="n">
+      <c r="A62" s="3" t="n">
         <v>44372</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -2385,7 +2377,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="n">
+      <c r="A63" s="3" t="n">
         <v>44373</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2395,7 +2387,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="n">
+      <c r="A64" s="3" t="n">
         <v>44374</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,7 +2397,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2415,7 +2407,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="n">
+      <c r="A66" s="3" t="n">
         <v>44376</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2425,7 +2417,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="n">
+      <c r="A67" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2435,7 +2427,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="n">
+      <c r="A68" s="3" t="n">
         <v>44378</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2445,7 +2437,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="n">
+      <c r="A69" s="3" t="n">
         <v>44379</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2455,7 +2447,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="n">
+      <c r="A70" s="3" t="n">
         <v>44380</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2465,7 +2457,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="n">
+      <c r="A71" s="3" t="n">
         <v>44381</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2475,7 +2467,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="n">
+      <c r="A72" s="3" t="n">
         <v>44382</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2485,7 +2477,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="n">
+      <c r="A73" s="3" t="n">
         <v>44383</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="n">
+      <c r="A74" s="3" t="n">
         <v>44384</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2505,7 +2497,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="n">
+      <c r="A75" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2515,7 +2507,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="n">
+      <c r="A76" s="3" t="n">
         <v>44386</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2525,7 +2517,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="3" t="n">
         <v>44387</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2535,7 +2527,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="3" t="n">
         <v>44388</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2545,7 +2537,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="3" t="n">
         <v>44389</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2555,7 +2547,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="3" t="n">
         <v>44390</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2565,7 +2557,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="3" t="n">
         <v>44391</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2575,7 +2567,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="3" t="n">
         <v>44392</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2585,7 +2577,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="3" t="n">
         <v>44393</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2595,7 +2587,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="3" t="n">
         <v>44394</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2605,7 +2597,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="3" t="n">
         <v>44395</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2615,7 +2607,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="3" t="n">
         <v>44396</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2625,7 +2617,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="n">
+      <c r="A87" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2635,7 +2627,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="n">
+      <c r="A88" s="3" t="n">
         <v>44398</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2645,7 +2637,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="n">
+      <c r="A89" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2655,7 +2647,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="n">
+      <c r="A90" s="3" t="n">
         <v>44400</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2665,7 +2657,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="n">
+      <c r="A91" s="3" t="n">
         <v>44401</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2675,7 +2667,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="n">
+      <c r="A92" s="3" t="n">
         <v>44402</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2685,7 +2677,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="n">
+      <c r="A93" s="3" t="n">
         <v>44403</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2695,7 +2687,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="n">
+      <c r="A94" s="3" t="n">
         <v>44404</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2705,7 +2697,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="n">
+      <c r="A95" s="3" t="n">
         <v>44405</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2715,7 +2707,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="n">
+      <c r="A96" s="3" t="n">
         <v>44406</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2725,7 +2717,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="n">
+      <c r="A97" s="3" t="n">
         <v>44407</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2735,7 +2727,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="n">
+      <c r="A98" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2745,7 +2737,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="n">
+      <c r="A99" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2755,7 +2747,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="n">
+      <c r="A100" s="3" t="n">
         <v>44410</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2765,7 +2757,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="n">
+      <c r="A101" s="3" t="n">
         <v>44411</v>
       </c>
       <c r="B101" t="inlineStr">
@@ -2775,7 +2767,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="n">
+      <c r="A102" s="3" t="n">
         <v>44412</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2785,7 +2777,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="n">
+      <c r="A103" s="3" t="n">
         <v>44413</v>
       </c>
       <c r="B103" t="inlineStr">
@@ -2795,7 +2787,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="n">
+      <c r="A104" s="3" t="n">
         <v>44414</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2805,7 +2797,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="n">
+      <c r="A105" s="3" t="n">
         <v>44415</v>
       </c>
       <c r="B105" t="inlineStr">
@@ -2815,7 +2807,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="n">
+      <c r="A106" s="3" t="n">
         <v>44416</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2825,7 +2817,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="n">
+      <c r="A107" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2835,7 +2827,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="n">
+      <c r="A108" s="3" t="n">
         <v>44418</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2845,7 +2837,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="n">
+      <c r="A109" s="3" t="n">
         <v>44419</v>
       </c>
       <c r="B109" t="inlineStr">
@@ -2855,7 +2847,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="n">
+      <c r="A110" s="3" t="n">
         <v>44420</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2865,7 +2857,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="n">
+      <c r="A111" s="3" t="n">
         <v>44421</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2875,7 +2867,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="n">
+      <c r="A112" s="3" t="n">
         <v>44422</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2885,7 +2877,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="n">
+      <c r="A113" s="3" t="n">
         <v>44423</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2895,7 +2887,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="n">
+      <c r="A114" s="3" t="n">
         <v>44424</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2905,7 +2897,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="n">
+      <c r="A115" s="3" t="n">
         <v>44425</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2915,7 +2907,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="n">
+      <c r="A116" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2925,7 +2917,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="n">
+      <c r="A117" s="3" t="n">
         <v>44427</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2935,7 +2927,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="n">
+      <c r="A118" s="3" t="n">
         <v>44428</v>
       </c>
       <c r="B118" t="inlineStr">
@@ -2945,7 +2937,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="n">
+      <c r="A119" s="3" t="n">
         <v>44429</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2955,7 +2947,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="n">
+      <c r="A120" s="3" t="n">
         <v>44430</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2965,7 +2957,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="n">
+      <c r="A121" s="3" t="n">
         <v>44431</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2975,7 +2967,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="n">
+      <c r="A122" s="3" t="n">
         <v>44432</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2985,7 +2977,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="n">
+      <c r="A123" s="3" t="n">
         <v>44433</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -2995,7 +2987,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="n">
+      <c r="A124" s="3" t="n">
         <v>44434</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -3005,7 +2997,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="n">
+      <c r="A125" s="3" t="n">
         <v>44435</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -3015,7 +3007,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="n">
+      <c r="A126" s="3" t="n">
         <v>44436</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -3025,7 +3017,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="n">
+      <c r="A127" s="3" t="n">
         <v>44437</v>
       </c>
       <c r="B127" t="inlineStr">
@@ -3035,7 +3027,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="n">
+      <c r="A128" s="3" t="n">
         <v>44438</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -3045,1318 +3037,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="n">
-        <v>44439</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Daily</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>44312</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $125,789.89 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
-        <v>44313</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $99,374.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>44314</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $82,203.16 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n">
-        <v>44315</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $33,530.26 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>44316</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $30,105.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n">
-        <v>44317</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $22,955.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="n">
-        <v>44318</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $19,579.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>44319</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $37,018.43 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>44320</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $55,900.40 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>44321</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $40,984.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>44322</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $9,724.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>44323</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11,365.60 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>44324</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $7,646.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $6,808.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $14,673.11 </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>44327</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $24,949.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>44328</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $17,715.13 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>44329</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4,253.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="n">
-        <v>44330</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,192.90 </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="n">
-        <v>44331</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,418.58 </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>44332</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,079.61 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>44333</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $6,729.05 </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>44334</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11,610.27 </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="n">
-        <v>44335</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $8,627.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="n">
-        <v>44336</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,838.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="n">
-        <v>44337</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,601.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="n">
-        <v>44338</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,783.67 </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="n">
-        <v>44339</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,700.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="n">
-        <v>44340</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $3,812.59 </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="n">
-        <v>44341</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,737.14 </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $5,744.27 </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>44343</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4,312.33 </t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>44344</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,652.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="n">
-        <v>44345</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,137.74 </t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="n">
-        <v>44346</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,000.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="n">
-        <v>44347</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,819.52 </t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="n">
-        <v>44348</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,955.72 </t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="n">
-        <v>44349</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2,249.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="n">
-        <v>44350</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $753.48 </t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="n">
-        <v>44351</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,044.94 </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="n">
-        <v>44352</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $771.17 </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="n">
-        <v>44353</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $733.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n">
-        <v>44354</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,061.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="n">
-        <v>44355</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,718.47 </t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="n">
-        <v>44356</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,328.70 </t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="n">
-        <v>44357</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $497.96 </t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="n">
-        <v>44358</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $655.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="n">
-        <v>44359</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $492.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="n">
-        <v>44360</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $444.19 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="n">
-        <v>44361</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $670.71 </t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="n">
-        <v>44362</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,109.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="n">
-        <v>44363</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,199.77 </t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="n">
-        <v>44364</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $368.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="n">
-        <v>44365</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $467.51 </t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="n">
-        <v>44366</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $353.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="n">
-        <v>44367</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $288.62 </t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="n">
-        <v>44368</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $398.94 </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="n">
-        <v>44369</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $608.86 </t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="n">
-        <v>44370</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $467.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="n">
-        <v>44371</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $196.29 </t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $247.21 </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="n">
-        <v>44373</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $184.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="n">
-        <v>44374</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $204.38 </t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="n">
-        <v>44375</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,275.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="n">
-        <v>44376</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,537.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="n">
-        <v>44377</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1,289.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="n">
-        <v>44378</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $578.32 </t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="n">
-        <v>44379</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $386.08 </t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="n">
-        <v>44380</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $409.16 </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="n">
-        <v>44381</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $512.57 </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="n">
-        <v>44382</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $693.22 </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="5" t="n">
-        <v>44383</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $777.98 </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="n">
-        <v>44384</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $525.73 </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="n">
-        <v>44385</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $239.25 </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5" t="n">
-        <v>44386</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $316.44 </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5" t="n">
-        <v>44387</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $234.88 </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="5" t="n">
-        <v>44388</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $214.09 </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="5" t="n">
-        <v>44389</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $358.82 </t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5" t="n">
-        <v>44390</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $495.82 </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5" t="n">
-        <v>44391</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $386.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="5" t="n">
-        <v>44392</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $191.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5" t="n">
-        <v>44393</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $249.41 </t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="5" t="n">
-        <v>44394</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $197.38 </t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="5" t="n">
-        <v>44395</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $153.44 </t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="5" t="n">
-        <v>44396</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $249.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="5" t="n">
-        <v>44397</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $318.39 </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="5" t="n">
-        <v>44398</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $238.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="5" t="n">
-        <v>44399</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $132.52 </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="5" t="n">
-        <v>44400</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $155.97 </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="5" t="n">
-        <v>44401</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $132.47 </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="n">
-        <v>44402</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $125.49 </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="n">
-        <v>44403</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $139.87 </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="n">
-        <v>44404</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $192.14 </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="n">
-        <v>44405</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $111.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="n">
-        <v>44406</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $57.23 </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="n">
-        <v>44407</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $66.29 </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="n">
-        <v>44408</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $48.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="n">
-        <v>44409</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $44.92 </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="n">
-        <v>44410</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $41.23 </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="n">
-        <v>44411</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $53.78 </t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="5" t="n">
-        <v>44412</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $39.33 </t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="n">
-        <v>44413</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $20.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="n">
-        <v>44414</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $20.54 </t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="5" t="n">
-        <v>44415</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $14.59 </t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="5" t="n">
-        <v>44416</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11.46 </t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="5" t="n">
-        <v>44417</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $12.18 </t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="5" t="n">
-        <v>44418</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $17.24 </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="5" t="n">
-        <v>44419</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $11.74 </t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="n">
-        <v>44420</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4.80 </t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="n">
-        <v>44421</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $4.68 </t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="n">
-        <v>44422</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.63 </t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="n">
-        <v>44423</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1.92 </t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="5" t="n">
-        <v>44424</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.15 </t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="n">
-        <v>44425</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $2.69 </t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="5" t="n">
-        <v>44426</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $1.34 </t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="5" t="n">
-        <v>44427</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.39 </t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="5" t="n">
-        <v>44428</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.19 </t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="5" t="n">
-        <v>44429</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="5" t="n">
-        <v>44430</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.07 </t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="5" t="n">
-        <v>44431</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.06 </t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="5" t="n">
-        <v>44432</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.04 </t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="5" t="n">
-        <v>44433</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.02 </t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="5" t="n">
-        <v>44434</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.01 </t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="5" t="n">
-        <v>44435</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="n">
-        <v>44436</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="5" t="n">
-        <v>44437</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="5" t="n">
-        <v>44438</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $0.00 </t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="5" t="n">
+      <c r="A129" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B129" t="inlineStr">
